--- a/results/over_time_tr_infr.xlsx
+++ b/results/over_time_tr_infr.xlsx
@@ -519,47 +519,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43576</v>
+        <v>43107.132</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>крутильных, выработку, влияния, эффекта, уменьшения</t>
+          <t>рам, браслет, зажимных, предварительно, опалубки</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
         <v>43107.132</v>
       </c>
       <c r="F2" t="n">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>браслет, предварительно, опалубки, протекторный, плиты</t>
+          <t>транспортного, средства, шторки, широковещательная, средство</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
         <v>43107.132</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>легкий, летательного, самолет, вертикального, летательном</t>
+          <t>площадки, индуктивная, энергопередающей, передача, индуктивной</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
         <v>43107.132</v>
       </c>
       <c r="L2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>широковещательная, фокусировки, составление, оценка, передача</t>
+          <t>бортовая, летательного, легкий, самолет, вертикального</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>речная, гидроэлектростанция, деривационная, гидростатическая, капиллярная</t>
+          <t>речная, гидроэлектростанция, деривационная, капиллярная, гидростатическая</t>
         </is>
       </c>
     </row>
@@ -579,47 +579,47 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43762.8</v>
+        <v>43202.4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>поглощения, энергии, электроэнергии, производства, устройство</t>
+          <t>представления, балка, поперечных, восприятие, сил</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
         <v>43202.4</v>
       </c>
       <c r="F3" t="n">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>поперечных, восприятие, сил, покрытый, скручивающейся</t>
+          <t>шины, колеса, средство, транспортное, транспортного</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
         <v>43202.4</v>
       </c>
       <c r="I3" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>воздушного, вертолет, летательного, воздуху, буксируемая</t>
+          <t>рекуперация, динамической, беспроводной, мобильной, энергии</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
         <v>43202.4</v>
       </c>
       <c r="L3" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>курсовой, вождение, транспортным, средством, устойчивости</t>
+          <t>воздушного, летательного, вертолет, воздуху, буксируемая</t>
         </is>
       </c>
       <c r="N3" s="2" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>гидростатическая, капиллярная, электростанция, подводная, гидроэлектростанция</t>
+          <t>капиллярная, гидростатическая, электростанция, подводная, гидроэлектростанция</t>
         </is>
       </c>
     </row>
@@ -639,47 +639,47 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43856.2</v>
+        <v>43295.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>электроэнергии, производства, поверхностных, гироскопических, давлениями</t>
+          <t>держателя, терминально, пересечений, резиновой, стрелочных</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
         <v>43295.8</v>
       </c>
       <c r="F4" t="n">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>держателя, резиновой, терминально, чашки, диена</t>
+          <t>транспортным, средством, транспортное, средство, транспортного</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>43295.8</v>
+        <v>43762.8</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>летамобиль, воздухоплавательный, мультикоптер, летательного, полетом</t>
+          <t>поглощения, энергии, устройство, электроэнергии, производства</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
         <v>43295.8</v>
       </c>
       <c r="L4" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>транспортным, средством, машиночитаемый, тс, носитель</t>
+          <t>летамобиль, летательного, воздухоплавательный, мультикоптер, полетом</t>
         </is>
       </c>
       <c r="N4" s="2" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>гидроэлектростанция, деривационная, капиллярная, гидростатическая, трубопроводу</t>
+          <t>гидроэлектростанция, деривационная, капиллярная, гидростатическая, бесплотинной</t>
         </is>
       </c>
     </row>
@@ -699,47 +699,47 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44323.2</v>
+        <v>43389.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1499</v>
+        <v>64</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>электроэнергии, производства, способ, поверхностных, выработку</t>
+          <t>инфильтрации, ламинированный, сотовый, копающий, пластиковый</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
         <v>43389.2</v>
       </c>
       <c r="F5" t="n">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>сотовый, ламинированный, инфильтрации, пластиковый, конструкции</t>
+          <t>контур, колеса, прицепа, угрозы, водителя</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>43389.2</v>
+        <v>44323.2</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>519</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>либо, крылья, многовинтовой, стереозрения, круткой</t>
+          <t>электроэнергии, производства, способ, рекуперация, энергии</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
         <v>43389.2</v>
       </c>
       <c r="L5" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>угрозы, полицейского, данных, водителя, маршрута</t>
+          <t>либо, крылья, летательного, летательный, круткой</t>
         </is>
       </c>
       <c r="N5" s="2" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>гидроэнергетическое, водоема, дне, расположенное, сооружение</t>
+          <t>гидроэнергетическое, расположенное, дне, водоема, гидроэлектростанция</t>
         </is>
       </c>
     </row>
@@ -759,47 +759,47 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44416.6</v>
+        <v>43482.6</v>
       </c>
       <c r="C6" t="n">
-        <v>560</v>
+        <v>52</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>электроэнергии, производства, способ, поверхностных, выработку</t>
+          <t>ригельная, заложения, хребтовая, стоечно, монолитного</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
         <v>43482.6</v>
       </c>
       <c r="F6" t="n">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>стоечно, ригельная, хребтовая, заложения, монолитного</t>
+          <t>транспортным, средством, столкновения, носитель, транспортного</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>43482.6</v>
+        <v>44416.6</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>самолет, раскрутки, конфигурация, посадочных, ротора</t>
+          <t>электроэнергии, производства, способ, рекуперация, энергии</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
         <v>43482.6</v>
       </c>
       <c r="L6" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>транспортным, столкновения, средством, датчиков, носитель</t>
+          <t>самолет, раскрутки, конфигурация, посадочных, гироплана</t>
         </is>
       </c>
       <c r="N6" s="2" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>гидроэлектростанция, деривационная, гидростатическая, капиллярная, электростанция</t>
+          <t>гидроэлектростанция, деривационная, капиллярная, гидростатическая, электростанция</t>
         </is>
       </c>
     </row>
@@ -819,47 +819,47 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44790.2</v>
+        <v>43576</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>накопление, преобразование, энергии, электроэнергии, производства</t>
+          <t>брекера, новый, армирующего, шинный, корд</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
         <v>43576</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>брекера, швартова, нейлона, армирующий, лопасти</t>
+          <t>уменьшение, крышу, аккумуляторной, двигателя, направляемого</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>43576</v>
+        <v>44790.2</v>
       </c>
       <c r="I7" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>движителем, плановой, возле, установления, летательного</t>
+          <t>накопление, преобразование, энергии, электроэнергии, производства</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
         <v>43576</v>
       </c>
       <c r="L7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>занятости, информирования, водителя, моделей, соответствующее</t>
+          <t>движителем, летательного, плановой, установления, возле</t>
         </is>
       </c>
       <c r="N7" s="2" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>электростанции, работы, гидроэлектростанция, деривационная, гидростатическая</t>
+          <t>электростанции, гидроэлектростанция, работы, деривационная, гидростатическая</t>
         </is>
       </c>
     </row>
@@ -878,40 +878,40 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>43669.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>промежуточного, литья, алюминотермитной, стыка, методом</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="n">
         <v>43669.4</v>
       </c>
       <c r="F8" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>алюминотермитной, промежуточного, литья, методом, стыка</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>43669.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>32</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>посадки, крена, углом, лопастей, летательного</t>
-        </is>
-      </c>
+          <t>обслуживания, выключенного, отслеживания, зажигания, дорожным</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" s="2" t="n">
         <v>43669.4</v>
       </c>
       <c r="L8" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>обслуживания, выключенного, состоянии, зажигания, дорожным</t>
+          <t>посадки, крена, летательного, углом, лопастей</t>
         </is>
       </c>
       <c r="N8" s="2" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>деривационная, гидроэлектростанция, гидростатическая, капиллярная, электростанция</t>
+          <t>деривационная, гидроэлектростанция, капиллярная, гидростатическая, электростанция</t>
         </is>
       </c>
     </row>
@@ -930,51 +930,51 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" s="2" t="n">
+        <v>43762.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>крепежный, адаптера, сваи, зажим, напольное</t>
+        </is>
+      </c>
       <c r="E9" s="2" t="n">
         <v>43762.8</v>
       </c>
       <c r="F9" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>крепежный, адаптера, сваи, напольное, зажим</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>43762.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>капсулы, концевая, управляемый, турбины, летательный</t>
-        </is>
-      </c>
+          <t>безопасность, управлению, автотранспортным, содействия, дорожного</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" s="2" t="n">
         <v>43762.8</v>
       </c>
       <c r="L9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>безопасность, автотранспортным, управлению, содействия, дорожного</t>
+          <t>концевая, капсулы, управляемый, турбины, летательный</t>
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>44603.4</v>
+        <v>44696.8</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>гидротехническое, сооружение, гидроэлектростанция, деривационная, гидростатическая</t>
+          <t>бесплотинная, гидроэлектростанция, деривационная, капиллярная, гидростатическая</t>
         </is>
       </c>
     </row>
@@ -982,92 +982,84 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" s="2" t="n">
+        <v>43856.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>унитаз, паркетных, esnsrc, габион, еснтрц</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="n">
         <v>43856.2</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>унитаз, еснтрц, габион, esnsrc, санузел</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>43856.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>крыла, уплотнений, летающая, облаков, процедуры</t>
-        </is>
-      </c>
+          <t>движением, распределительный, электрическое, тормозами, вождении</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" s="2" t="n">
         <v>43856.2</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>движением, вождении, пространством, угону, местами</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>44696.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>бесплотинная, гидроэлектростанция, деривационная, гидростатическая, капиллярная</t>
-        </is>
-      </c>
+          <t>крыла, летательный, уплотнений, процедуры, механизация</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>43949.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>скользящего, керамических, железобетонных, строительная, боковое</t>
+        </is>
+      </c>
       <c r="E11" s="2" t="n">
         <v>43949.6</v>
       </c>
       <c r="F11" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>скользящего, керамических, железобетонных, боковое, плитки</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>43949.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>41</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>крыла, консоли, складываемой, концевой, авиационных</t>
-        </is>
-      </c>
+          <t>поперечный, кран, двигателей, электрической, транспорта</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" s="2" t="n">
         <v>43949.6</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>осуществляемый, безрельсовое, кооперативной, интеллектуальных, идентификации</t>
+          <t>крыла, консоли, складываемой, концевой, летательного</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1078,40 +1070,40 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>каналом, штамповкой, ортотропная, мачтовая, вышка</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="n">
         <v>44043</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>каналом, тротуарной, штамповкой, уплотняющего, ортотропная</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>44043</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>ток, винтокрылого, самолетах, парашюта, постоянный</t>
-        </is>
-      </c>
+          <t>дорожно, электромеханической, гусеничного, опорное, транспортным</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" s="2" t="n">
         <v>44043</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>происшествия, показателю, самосвального, согласно, заданному</t>
+          <t>винтокрылого, самолетах, ток, парашюта, винты</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1122,9 +1114,17 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B13" s="2" t="n">
+        <v>44136.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>коронки, совмещающие, балка, функционализованные, биссилиламиносилил</t>
+        </is>
+      </c>
       <c r="E13" s="2" t="n">
         <v>44136.4</v>
       </c>
@@ -1133,29 +1133,21 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>коронки, совмещающие, орудия, балка, смежными</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>44136.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>27</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>ла, летательный, которых, летательного, летающий</t>
-        </is>
-      </c>
+          <t>электрифицированном, кусторез, токоприемник, прогнозирования, бампер</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" s="2" t="n">
         <v>44136.4</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>прогнозирования, автомобильной, динамики, дд, участниками</t>
+          <t>ла, летательный, которых, летательного, аппарат</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1166,40 +1158,40 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
+        <v>44229.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>защелкивающейся, защелкивающуюся, натяжного, моноблоков, составные</t>
+        </is>
+      </c>
       <c r="E14" s="2" t="n">
         <v>44229.8</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>натяжного, защелкивающейся, защелкивающуюся, полимер, прокладку</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>44229.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>полета, режимов, автопилот, влагозащищённость, дождевальная</t>
-        </is>
-      </c>
+          <t>насадка, вождении, контакта, магнитно, мототранспортная</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" s="2" t="n">
         <v>44229.8</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>вождении, сдтс, вторичной, асудд24, функции</t>
+          <t>полета, режимов, дождевальная, влагозащищённость, автопилот</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1210,40 +1202,40 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="B15" s="2" t="n">
+        <v>44323.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1034</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>электроэнергии, производства, способ, самосвала, футеровка</t>
+        </is>
+      </c>
       <c r="E15" s="2" t="n">
         <v>44323.2</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>стяжки, четырехточечный, карьерный, футеровку, самосвала</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>44323.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>инертирования, летательного, самолета, аппарата, крыла</t>
-        </is>
-      </c>
+          <t>sdc, аксессуаров, накачки, колесная, диагностики</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" s="2" t="n">
         <v>44323.2</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>sdc, беспилотном, sdv, прогнозирующая, беспилотного</t>
+          <t>летательного, самолета, аппарата, крыла, консоль</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1254,40 +1246,40 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>44416.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>559</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>электроэнергии, производства, способ, эластомерного, упругодемпфирующего</t>
+        </is>
+      </c>
       <c r="E16" s="2" t="n">
         <v>44416.6</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>эластомерного, упругодемпфирующего, трехточечного, модульного, соединитель</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>44416.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>корпусов, обрабатывающая, ввп, зависать, способного</t>
-        </is>
-      </c>
+          <t>ограниченного, проскальзывания, работу, дифференциалом, ходе</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" s="2" t="n">
         <v>44416.6</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>централизованная, моющее, фотовидеофиксации, правонарушений, удаленного</t>
+          <t>корпусов, зависать, обрабатывающая, ввп, способного</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1298,31 +1290,31 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="C17" t="n">
+        <v>52</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>уплотнения, полотно, арматуры, электротермическим, ремонтного</t>
+        </is>
+      </c>
       <c r="E17" s="2" t="n">
         <v>44510</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>уплотнения, полотно, арматуры, электротермическим, натяжения</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>44510</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>противовращения, электродвижителями, трех, импеллерными, вертолет</t>
-        </is>
-      </c>
+          <t>здоровья, граждан, жизни, качества, покупки</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" s="2" t="n">
         <v>44510</v>
       </c>
@@ -1331,7 +1323,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>здоровья, граждан, жизни, качества, предложения</t>
+          <t>противовращения, электродвижителями, трех, импеллерными, вертолет</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1342,40 +1334,40 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" s="2" t="n">
+        <v>44603.4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>34</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>сенсорных, фальшпола, опор, обеззараживающий, сцеплением</t>
+        </is>
+      </c>
       <c r="E18" s="2" t="n">
         <v>44603.4</v>
       </c>
       <c r="F18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>фальшпола, опор, собранный, сферическая, двойного</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>44603.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>посадке, всеракурсной, летательного, летчик, ночного</t>
-        </is>
-      </c>
+          <t>тс, легким, городским, электротранспортом, безопасного</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" s="2" t="n">
         <v>44603.4</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>доступа, пассажирскому, участку, сочлененной, формой</t>
+          <t>посадке, всеракурсной, летательного, такого, психологических</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1386,40 +1378,40 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="B19" s="2" t="n">
+        <v>44696.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>41</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>крупноформатной, огнезащитной, плетей, бесстыкового, постоянной</t>
+        </is>
+      </c>
       <c r="E19" s="2" t="n">
         <v>44696.8</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>крупноформатной, огнезащитной, бесстыкового, плетей, постоянной</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>44696.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>турбомашины, несущим, сигналов, винтом, огнезащитное</t>
-        </is>
-      </c>
+          <t>тягача, гусеничным, роботизированным, изображения, шипованная</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" s="2" t="n">
         <v>44696.8</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>изображения, равновесия, общественному, обобщенной, транспорту</t>
+          <t>турбомашины, несущим, сигналов, винтом, концом</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -1430,40 +1422,40 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="B20" s="2" t="n">
+        <v>44790.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>обвязочная, камень, изготовленная, рычагов, скрещенных</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="n">
         <v>44790.2</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>камень, скрещенных, изготовленная, рычагов, каркаса</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>44790.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>манипулирования, полете, летательного, перемещение, большие</t>
-        </is>
-      </c>
+          <t>газотурбинный, рельсовая, грузонесущая, тяга, боковин</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" s="2" t="n">
         <v>44790.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>децентрализации, комплекта, среди, классифицированных, имущества</t>
+          <t>манипулирования, летательного, полете, аппарата, прямо</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1474,40 +1466,40 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="B21" s="2" t="n">
+        <v>44883.6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>подмостей, стойкого, коррозионно, сочленения, травостоя</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="n">
         <v>44883.6</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>подмостей, стойкого, коррозионно, вкладка, арочных</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>44883.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>генерацией, винтокрылых, пост, гребневые, новых</t>
-        </is>
-      </c>
+          <t>частоты, пояснично, колесным, полуавтоматические, лентах</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" s="2" t="n">
         <v>44883.6</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>камерой, мониторинга, средстве, транспортном, устройством</t>
+          <t>кольцевидных, электросамолет, трёхкоординатный, складываемые, принципах</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
